--- a/REGULAR/MAYORS OFFICE/VIDA, CHARMAINE.xlsx
+++ b/REGULAR/MAYORS OFFICE/VIDA, CHARMAINE.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>PERIOD</t>
   </si>
@@ -218,6 +218,15 @@
   </si>
   <si>
     <t>UT(0-1-5)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>FL(2-0-0)</t>
+  </si>
+  <si>
+    <t>12/12,13/2023</t>
   </si>
 </sst>
 </file>
@@ -599,6 +608,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -611,20 +629,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1080,7 +1089,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1123,7 +1132,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1187,7 +1196,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1247,7 +1256,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1313,7 +1322,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1376,7 +1385,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1474,7 +1483,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1533,7 +1542,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,7 +1607,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1641,7 +1650,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1716,7 +1725,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1902,7 +1911,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1968,7 +1977,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2026,7 +2035,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2101,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2148,7 +2157,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2223,7 +2232,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2266,7 +2275,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2332,7 +2341,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2388,7 +2397,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2486,7 +2495,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2549,7 +2558,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2615,7 +2624,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K117" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K118" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -2993,12 +3002,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K117"/>
+  <dimension ref="A2:K118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A40" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A58" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3028,14 +3037,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3046,16 +3055,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="56">
         <v>43709</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3068,14 +3077,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3101,18 +3110,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3159,7 +3168,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>37.661000000000001</v>
+        <v>39.411000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3169,7 +3178,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>58</v>
+        <v>61.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4365,13 +4374,15 @@
         <v>45199</v>
       </c>
       <c r="B67" s="20"/>
-      <c r="C67" s="13"/>
+      <c r="C67" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D67" s="38"/>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G67" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H67" s="38"/>
       <c r="I67" s="9"/>
@@ -4383,13 +4394,15 @@
         <v>45230</v>
       </c>
       <c r="B68" s="20"/>
-      <c r="C68" s="13"/>
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D68" s="38"/>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H68" s="38"/>
       <c r="I68" s="9"/>
@@ -4401,13 +4414,15 @@
         <v>45260</v>
       </c>
       <c r="B69" s="20"/>
-      <c r="C69" s="13"/>
+      <c r="C69" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D69" s="38"/>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G69" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H69" s="38"/>
       <c r="I69" s="9"/>
@@ -4418,9 +4433,13 @@
       <c r="A70" s="39">
         <v>45291</v>
       </c>
-      <c r="B70" s="20"/>
+      <c r="B70" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C70" s="13"/>
-      <c r="D70" s="38"/>
+      <c r="D70" s="38">
+        <v>2</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13" t="str">
@@ -4430,11 +4449,13 @@
       <c r="H70" s="38"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="20"/>
+      <c r="K70" s="20" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="39">
-        <v>45322</v>
+      <c r="A71" s="47" t="s">
+        <v>61</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4452,7 +4473,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="39">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4470,7 +4491,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="39">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4488,7 +4509,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4506,7 +4527,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="39">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4524,7 +4545,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4542,7 +4563,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="39">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4560,7 +4581,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="39">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4578,7 +4599,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="39">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4596,7 +4617,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="39">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4614,7 +4635,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="39">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4632,7 +4653,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="39">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4650,7 +4671,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4668,7 +4689,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4686,7 +4707,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4704,7 +4725,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="39">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4721,7 +4742,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="39"/>
+      <c r="A87" s="39">
+        <v>45777</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="38"/>
@@ -5201,34 +5224,50 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
-      <c r="B117" s="15"/>
-      <c r="C117" s="41"/>
-      <c r="D117" s="42"/>
+      <c r="A117" s="39"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="38"/>
       <c r="E117" s="9"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="41" t="str">
+      <c r="F117" s="20"/>
+      <c r="G117" s="13" t="str">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H117" s="42"/>
+      <c r="H117" s="38"/>
       <c r="I117" s="9"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="15"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="20"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="40"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="42"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="41" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H118" s="42"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
